--- a/植物整理.xlsx
+++ b/植物整理.xlsx
@@ -1,24 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Wayne/Documents/期末專題:報告/數概專題104_2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="23256" windowHeight="13176" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,79 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="120">
   <si>
-    <t>火鶴花</t>
-  </si>
-  <si>
-    <t>印度橡膠樹</t>
-  </si>
-  <si>
-    <t>百合竹</t>
-  </si>
-  <si>
-    <t>松葉景天</t>
-  </si>
-  <si>
-    <t>肯式南洋杉</t>
-  </si>
-  <si>
-    <t>金露華</t>
-  </si>
-  <si>
-    <t>相思樹</t>
-  </si>
-  <si>
-    <t>桂花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袖珍椰子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黃金榕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>構樹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鳳仙花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鳳凰木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樹杞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>繁星花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>繡球花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麒麟花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麵包樹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>變葉木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鵝掌藤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>學名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,20 +31,12 @@
     <t>Dracaena reflexa</t>
   </si>
   <si>
-    <t>杜鵑花屬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rhododendron</t>
   </si>
   <si>
     <t>Alocasia</t>
   </si>
   <si>
-    <t>姑婆芋屬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sedum mexicanum</t>
   </si>
   <si>
@@ -157,10 +68,6 @@
     <t>Hydrangea macrophylla</t>
   </si>
   <si>
-    <t>薰衣草屬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lavandula</t>
   </si>
   <si>
@@ -181,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>觀音竹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ardisia sieboldii Miq.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,10 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蟹螫蘭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hymenocallis littoralis (Jack.) Salisb.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,9 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">台灣山蘇花      </t>
-  </si>
-  <si>
     <t>Asplenium nidus Linn.</t>
   </si>
   <si>
@@ -221,13 +117,6 @@
     <t>1. 園藝植栽用：適合作切花、盆栽、庭園露地栽培、花壇用。</t>
   </si>
   <si>
-    <t>四季秋海棠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矮仙丹花</t>
-  </si>
-  <si>
     <t>Ixora x williamsii Hort.</t>
   </si>
   <si>
@@ -252,10 +141,6 @@
     <t>1.園藝植栽用。2.藥用：性味：全草：酸、涼；花、葉：苦、涼。效用：全草：清熱解毒，散結消腫。治瘡癤；花、葉：清熱解毒。治瘡癤。</t>
   </si>
   <si>
-    <t>榕樹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ficus microcarpa Linn. f.</t>
   </si>
   <si>
@@ -302,10 +187,6 @@
     <t>1. 木材可供製枕木、坑木及農具：木材年輪明顯，邊材黃褐色，心材暗褐色，材質緻密堅重，木理通直，是優良的枕木、坑木及農具用材。2. 作薪炭用：是良好的木炭來源。3. 種植為行道、園景樹。4. 是很好的防風、綠化、保護水土的良好樹種。5. 藥用：性味：嫩枝葉：澀、平。效用：嫩枝葉：行血散瘀，袪腐生肌。治跌打，毒蛇咬傷；外洗治爛瘡。樹皮：治跌打。</t>
   </si>
   <si>
-    <t>常春藤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Acacia confusa Merr.</t>
   </si>
   <si>
@@ -392,10 +273,6 @@
     <t>1. 園藝觀賞用、盆栽。</t>
   </si>
   <si>
-    <t>裂葉蔓綠絨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Philodenron selloum Koch</t>
   </si>
   <si>
@@ -425,6 +302,334 @@
   </si>
   <si>
     <t>表示內容為描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1台灣山蘇花      </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2火鶴花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3印度橡膠樹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4百合竹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5肯式南洋杉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6金露華</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>觀音竹</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8裂葉蔓綠絨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>黃金榕</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鳳仙花</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鳳凰木</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>繁星花</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>繡球花</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14松葉景天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>常春藤</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>袖珍椰子</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17榕樹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18相思樹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桂花</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>構樹</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>麵包樹</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>變葉木</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樹杞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>蟹螫蘭</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>麒麟花</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鵝掌藤</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27矮仙丹花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28四季秋海棠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29杜鵑花屬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30姑婆芋屬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>薰衣草屬</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,7 +637,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -459,6 +664,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Abadi MT Condensed Extra Bold"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="6">
@@ -576,7 +788,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -611,7 +823,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -788,7 +1000,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -798,498 +1010,499 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="37.6640625" customWidth="1"/>
-    <col min="3" max="3" width="67.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="67.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15">
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15">
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15">
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15">
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15">
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15">
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15">
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15">
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15">
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15">
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15">
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15">
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15">
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15">
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15">
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15">
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15">
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15">
+      <c r="B47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="B48" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="C50" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="55" spans="1:3">
+      <c r="B55" t="s">
         <v>45</v>
       </c>
-      <c r="C33" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A40" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" t="s">
+    </row>
+    <row r="56" spans="1:3" ht="15">
+      <c r="B56" t="s">
         <v>60</v>
       </c>
-      <c r="C44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B49" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A51" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>72</v>
-      </c>
-      <c r="B54" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B55" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B56" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="8"/>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>